--- a/nf3.xlsx
+++ b/nf3.xlsx
@@ -432,28 +432,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.681052684</v>
+        <v>4.4</v>
       </c>
       <c r="C2">
-        <v>6.580833033999999</v>
+        <v>5.5</v>
       </c>
       <c r="D2">
-        <v>0.02474594116</v>
+        <v>1.3</v>
       </c>
       <c r="E2">
-        <v>0.07108020782</v>
+        <v>2.41</v>
       </c>
       <c r="F2">
-        <v>0.8997803499999986</v>
+        <v>1.1</v>
       </c>
       <c r="G2">
-        <v>-1.055147444999131</v>
+        <v>-0.6172624830350726</v>
       </c>
       <c r="H2">
-        <v>-0.1679319315623954</v>
+        <v>-0.09824037536020899</v>
       </c>
       <c r="I2">
-        <v>6.983021253108713</v>
+        <v>5.711986642890535</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -461,28 +461,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.18142183</v>
+        <v>2.180800269</v>
       </c>
       <c r="C3">
-        <v>5.081199216</v>
+        <v>3.881050218</v>
       </c>
       <c r="D3">
-        <v>0.1587686539</v>
+        <v>2.412134171</v>
       </c>
       <c r="E3">
         <v>0.2406511307</v>
       </c>
       <c r="F3">
-        <v>0.8997773860000002</v>
+        <v>1.700249949</v>
       </c>
       <c r="G3">
-        <v>-0.415900158511376</v>
+        <v>2.304918888488151</v>
       </c>
       <c r="H3">
-        <v>-0.06619256605978829</v>
+        <v>0.3668392345287664</v>
       </c>
       <c r="I3">
-        <v>6.983044256215153</v>
+        <v>3.6954480197897</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -490,28 +490,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.681342945</v>
+        <v>5.081199216</v>
       </c>
       <c r="C4">
-        <v>3.581123134</v>
+        <v>6.880759618</v>
       </c>
       <c r="D4">
-        <v>1.305663109</v>
+        <v>0.2406511307</v>
       </c>
       <c r="E4">
-        <v>1.378829956</v>
+        <v>0.05192375183</v>
       </c>
       <c r="F4">
-        <v>0.8997801889999999</v>
+        <v>1.799560402</v>
       </c>
       <c r="G4">
-        <v>-0.05452424034074257</v>
+        <v>1.533571962728984</v>
       </c>
       <c r="H4">
-        <v>-0.008677802368559707</v>
+        <v>0.2440755584554578</v>
       </c>
       <c r="I4">
-        <v>6.983022502598785</v>
+        <v>3.491511204734536</v>
       </c>
     </row>
   </sheetData>
